--- a/IP1_03/SampleData02_A_03_ver02.xlsx
+++ b/IP1_03/SampleData02_A_03_ver02.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owata\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\IP1\IP\IP1_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t>個人番号</t>
     <rPh sb="0" eb="2">
@@ -417,6 +418,39 @@
   </si>
   <si>
     <t>頻度</t>
+  </si>
+  <si>
+    <t>階級値</t>
+    <rPh sb="0" eb="2">
+      <t>カイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階級上側</t>
+    <rPh sb="0" eb="2">
+      <t>カイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階級範囲</t>
+    <rPh sb="0" eb="2">
+      <t>カイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -973,6 +1007,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1026,6 +1061,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1436,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1836,10 +1872,766 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A2+5</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>A2&amp;"-"&amp;B2</f>
+        <v>0-5</v>
+      </c>
+      <c r="D2" s="20" t="str">
+        <f>A2&amp;"&lt;x≦"&amp;B2</f>
+        <v>0&lt;x≦5</v>
+      </c>
+      <c r="E2" s="20">
+        <f>A2+2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B31" si="0">A3+5</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f t="shared" ref="C3:C31" si="1">A3&amp;"-"&amp;B3</f>
+        <v>5-10</v>
+      </c>
+      <c r="D3" s="20" t="str">
+        <f t="shared" ref="D3:D31" si="2">A3&amp;"&lt;x≦"&amp;B3</f>
+        <v>5&lt;x≦10</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E31" si="3">A3+2.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10-15</v>
+      </c>
+      <c r="D4" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>10&lt;x≦15</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>15-20</v>
+      </c>
+      <c r="D5" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>15&lt;x≦20</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20-25</v>
+      </c>
+      <c r="D6" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>20&lt;x≦25</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>25-30</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>25&lt;x≦30</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="20">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>30-35</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>30&lt;x≦35</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="3"/>
+        <v>32.5</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>35-40</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>35&lt;x≦40</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>40-45</v>
+      </c>
+      <c r="D10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>40&lt;x≦45</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="3"/>
+        <v>42.5</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>45-50</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>45&lt;x≦50</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="3"/>
+        <v>47.5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>50-55</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>50&lt;x≦55</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="3"/>
+        <v>52.5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>55-60</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>55&lt;x≦60</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="F13" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="20">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>60-65</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>60&lt;x≦65</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="F14" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="20">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>65-70</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>65&lt;x≦70</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="3"/>
+        <v>67.5</v>
+      </c>
+      <c r="F15" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>70-75</v>
+      </c>
+      <c r="D16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>70&lt;x≦75</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="F16" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>75-80</v>
+      </c>
+      <c r="D17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>75&lt;x≦80</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="3"/>
+        <v>77.5</v>
+      </c>
+      <c r="F17" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>80-85</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>80&lt;x≦85</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+      <c r="F18" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="20">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>85-90</v>
+      </c>
+      <c r="D19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>85&lt;x≦90</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+      <c r="F19" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>90-95</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>90&lt;x≦95</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="20">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>95-100</v>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>95&lt;x≦100</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="3"/>
+        <v>97.5</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="20">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>100-105</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>100&lt;x≦105</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="3"/>
+        <v>102.5</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="20">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>105-110</v>
+      </c>
+      <c r="D23" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>105&lt;x≦110</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="3"/>
+        <v>107.5</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>110-115</v>
+      </c>
+      <c r="D24" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>110&lt;x≦115</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="3"/>
+        <v>112.5</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20">
+        <v>115</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>115-120</v>
+      </c>
+      <c r="D25" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>115&lt;x≦120</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="3"/>
+        <v>117.5</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="20">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>120-125</v>
+      </c>
+      <c r="D26" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>120&lt;x≦125</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="3"/>
+        <v>122.5</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20">
+        <v>125</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>125-130</v>
+      </c>
+      <c r="D27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>125&lt;x≦130</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20">
+        <v>130</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>130-135</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>130&lt;x≦135</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="3"/>
+        <v>132.5</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20">
+        <v>135</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>135-140</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>135&lt;x≦140</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="3"/>
+        <v>137.5</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="20">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>140-145</v>
+      </c>
+      <c r="D30" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>140&lt;x≦145</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="3"/>
+        <v>142.5</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="20">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>145-150</v>
+      </c>
+      <c r="D31" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>145&lt;x≦150</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="3"/>
+        <v>147.5</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25"/>

--- a/IP1_03/SampleData02_A_03_ver02.xlsx
+++ b/IP1_03/SampleData02_A_03_ver02.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
   <si>
     <t>個人番号</t>
     <rPh sb="0" eb="2">
@@ -449,6 +451,51 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>累積度数</t>
+    <rPh sb="0" eb="2">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総体度数</t>
+    <rPh sb="0" eb="2">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>累積相対度数</t>
+    <rPh sb="0" eb="2">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -607,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,6 +711,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,6 +1157,2587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>図</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>：人の体重の分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31024233436580367"/>
+          <c:y val="0.90353543307086626"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12601137875517041"/>
+          <c:y val="9.2601076380603928E-2"/>
+          <c:w val="0.83622847371025544"/>
+          <c:h val="0.62288167104111991"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>147.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2924-4FE6-AA20-A2C92F9A6614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="457427208"/>
+        <c:axId val="457430160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457427208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+                  <a:t>体重</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>(kg)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457430160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457430160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>人数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457427208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="28575">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>度数と累積総体素数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$B$8:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$C$8:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEC7-48B1-838B-5E926A549B6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="359992088"/>
+        <c:axId val="359993728"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$B$8:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$8:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEC7-48B1-838B-5E926A549B6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="359992088"/>
+        <c:axId val="359993728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="359992088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359993728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359993728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="22225">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359992088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16426454957593109"/>
+          <c:y val="0.27528054498805632"/>
+          <c:w val="0.30783453721177417"/>
+          <c:h val="5.0562151641157224E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>相対度数と累積相対度数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="34925">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$B$7:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$E$7:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0309278350515464E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1546391752577317E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17525773195876287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25773195876288657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10309278350515463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16494845360824742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12371134020618557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1546391752577317E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0927835051546393E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0927835051546393E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69A-46DE-9465-E0DEFA324E95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="360016032"/>
+        <c:axId val="360015048"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$B$7:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$F$7:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0309278350515464E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1855670103092779E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23711340206185566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49484536082474223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59793814432989689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76288659793814428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88659793814432986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93814432989690721</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96907216494845361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69A-46DE-9465-E0DEFA324E95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="360016032"/>
+        <c:axId val="360015048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360016032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360015048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360015048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360016032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8133420822397187E-2"/>
+          <c:y val="0.36631889763779518"/>
+          <c:w val="0.26605699287589052"/>
+          <c:h val="4.5454863596595889E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1140,6 +3771,109 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97A6523-AFC4-4E86-A355-12C5C7F4A4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1470,10 +4204,1280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A2+5</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>A2&amp;"-"&amp;B2</f>
+        <v>0-5</v>
+      </c>
+      <c r="D2" s="20" t="str">
+        <f>A2&amp;"&lt;x≦"&amp;B2</f>
+        <v>0&lt;x≦5</v>
+      </c>
+      <c r="E2" s="20">
+        <f>A2+2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>SUBSTITUTE(C2,"-","&lt;x&lt;=")</f>
+        <v>0&lt;x&lt;=5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" t="str">
+        <f>A2&amp;H2&amp;I2&amp;J2&amp;B2</f>
+        <v>0&lt;x&lt;=5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="20">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B31" si="0">A3+5</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f t="shared" ref="C3:C31" si="1">A3&amp;"-"&amp;B3</f>
+        <v>5-10</v>
+      </c>
+      <c r="D3" s="20" t="str">
+        <f t="shared" ref="D3:D31" si="2">A3&amp;"&lt;x≦"&amp;B3</f>
+        <v>5&lt;x≦10</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E31" si="3">A3+2.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G31" si="4">SUBSTITUTE(C3,"-","&lt;x&lt;=")</f>
+        <v>5&lt;x&lt;=10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K31" si="5">A3&amp;H3&amp;I3&amp;J3&amp;B3</f>
+        <v>5&lt;x&lt;=10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="20">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10-15</v>
+      </c>
+      <c r="D4" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>10&lt;x≦15</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>10&lt;x&lt;=15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
+        <v>10&lt;x&lt;=15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="20">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>15-20</v>
+      </c>
+      <c r="D5" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>15&lt;x≦20</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>15&lt;x&lt;=20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="5"/>
+        <v>15&lt;x&lt;=20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="20">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20-25</v>
+      </c>
+      <c r="D6" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>20&lt;x≦25</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v>20&lt;x&lt;=25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
+        <v>20&lt;x&lt;=25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="20">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>25-30</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>25&lt;x≦30</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>25&lt;x&lt;=30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>25&lt;x&lt;=30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="20">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>30-35</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>30&lt;x≦35</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="3"/>
+        <v>32.5</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>30&lt;x&lt;=35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>30&lt;x&lt;=35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="20">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>35-40</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>35&lt;x≦40</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>35&lt;x&lt;=40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>35&lt;x&lt;=40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="20">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>40-45</v>
+      </c>
+      <c r="D10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>40&lt;x≦45</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="3"/>
+        <v>42.5</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>40&lt;x&lt;=45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>40&lt;x&lt;=45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="20">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>45-50</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>45&lt;x≦50</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="3"/>
+        <v>47.5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>45&lt;x&lt;=50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>45&lt;x&lt;=50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="20">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>50-55</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>50&lt;x≦55</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="3"/>
+        <v>52.5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>17</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>50&lt;x&lt;=55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>50&lt;x&lt;=55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="20">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>55-60</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>55&lt;x≦60</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="F13" s="21">
+        <v>25</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>55&lt;x&lt;=60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>55&lt;x&lt;=60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="20">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>60-65</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>60&lt;x≦65</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="F14" s="21">
+        <v>10</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>60&lt;x&lt;=65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>60&lt;x&lt;=65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="20">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>65-70</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>65&lt;x≦70</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="3"/>
+        <v>67.5</v>
+      </c>
+      <c r="F15" s="21">
+        <v>16</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>65&lt;x&lt;=70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>65&lt;x&lt;=70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="20">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>70-75</v>
+      </c>
+      <c r="D16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>70&lt;x≦75</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="F16" s="21">
+        <v>12</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>70&lt;x&lt;=75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v>70&lt;x&lt;=75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="20">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>75-80</v>
+      </c>
+      <c r="D17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>75&lt;x≦80</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="3"/>
+        <v>77.5</v>
+      </c>
+      <c r="F17" s="21">
+        <v>5</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="4"/>
+        <v>75&lt;x&lt;=80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>75&lt;x&lt;=80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="20">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>80-85</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>80&lt;x≦85</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+      <c r="F18" s="21">
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="4"/>
+        <v>80&lt;x&lt;=85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>80&lt;x&lt;=85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="20">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>85-90</v>
+      </c>
+      <c r="D19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>85&lt;x≦90</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+      <c r="F19" s="21">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="4"/>
+        <v>85&lt;x&lt;=90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>85&lt;x&lt;=90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>90-95</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>90&lt;x≦95</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="4"/>
+        <v>90&lt;x&lt;=95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>90&lt;x&lt;=95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="20">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>95-100</v>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>95&lt;x≦100</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="3"/>
+        <v>97.5</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="4"/>
+        <v>95&lt;x&lt;=100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>95&lt;x&lt;=100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="20">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>100-105</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>100&lt;x≦105</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="3"/>
+        <v>102.5</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="4"/>
+        <v>100&lt;x&lt;=105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v>100&lt;x&lt;=105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="20">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>105-110</v>
+      </c>
+      <c r="D23" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>105&lt;x≦110</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="3"/>
+        <v>107.5</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="4"/>
+        <v>105&lt;x&lt;=110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>105&lt;x&lt;=110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="20">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>110-115</v>
+      </c>
+      <c r="D24" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>110&lt;x≦115</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="3"/>
+        <v>112.5</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="4"/>
+        <v>110&lt;x&lt;=115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v>110&lt;x&lt;=115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="20">
+        <v>115</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>115-120</v>
+      </c>
+      <c r="D25" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>115&lt;x≦120</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="3"/>
+        <v>117.5</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>115&lt;x&lt;=120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v>115&lt;x&lt;=120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="20">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>120-125</v>
+      </c>
+      <c r="D26" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>120&lt;x≦125</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="3"/>
+        <v>122.5</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>120&lt;x&lt;=125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v>120&lt;x&lt;=125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="20">
+        <v>125</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>125-130</v>
+      </c>
+      <c r="D27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>125&lt;x≦130</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>125&lt;x&lt;=130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>125&lt;x&lt;=130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="20">
+        <v>130</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>130-135</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>130&lt;x≦135</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="3"/>
+        <v>132.5</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>130&lt;x&lt;=135</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>130&lt;x&lt;=135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="20">
+        <v>135</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>135-140</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>135&lt;x≦140</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="3"/>
+        <v>137.5</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>135&lt;x&lt;=140</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v>135&lt;x&lt;=140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="20">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>140-145</v>
+      </c>
+      <c r="D30" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>140&lt;x≦145</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="3"/>
+        <v>142.5</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>140&lt;x&lt;=145</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="5"/>
+        <v>140&lt;x&lt;=145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="20">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>145-150</v>
+      </c>
+      <c r="D31" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>145&lt;x≦150</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="3"/>
+        <v>147.5</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>145&lt;x&lt;=150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" t="s">
+        <v>112</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="5"/>
+        <v>145&lt;x&lt;=150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1870,12 +5874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1884,43 +5888,43 @@
       <c r="A1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>108</v>
+      <c r="B1" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="23" t="s">
         <v>106</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>A2+5</f>
-        <v>5</v>
-      </c>
-      <c r="C2" s="20" t="str">
-        <f>A2&amp;"-"&amp;B2</f>
-        <v>0-5</v>
-      </c>
-      <c r="D2" s="20" t="str">
-        <f>A2&amp;"&lt;x≦"&amp;B2</f>
-        <v>0&lt;x≦5</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="B2" s="20">
         <f>A2+2.5</f>
         <v>2.5</v>
       </c>
-      <c r="F2" s="21">
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>C2/$C$32</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2</f>
         <v>0</v>
       </c>
     </row>
@@ -1928,23 +5932,23 @@
       <c r="A3" s="20">
         <v>5</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B31" si="0">A3+5</f>
-        <v>10</v>
-      </c>
-      <c r="C3" s="20" t="str">
-        <f t="shared" ref="C3:C31" si="1">A3&amp;"-"&amp;B3</f>
-        <v>5-10</v>
-      </c>
-      <c r="D3" s="20" t="str">
-        <f t="shared" ref="D3:D31" si="2">A3&amp;"&lt;x≦"&amp;B3</f>
-        <v>5&lt;x≦10</v>
-      </c>
-      <c r="E3" s="20">
-        <f t="shared" ref="E3:E31" si="3">A3+2.5</f>
+      <c r="B3" s="20">
+        <f t="shared" ref="B3:B31" si="0">A3+2.5</f>
         <v>7.5</v>
       </c>
-      <c r="F3" s="21">
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>C3+C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E33" si="1">C3/$C$32</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3+F2</f>
         <v>0</v>
       </c>
     </row>
@@ -1952,23 +5956,23 @@
       <c r="A4" s="20">
         <v>10</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="str">
+      <c r="B4" s="20">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D32" si="2">C4+C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>10-15</v>
-      </c>
-      <c r="D4" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>10&lt;x≦15</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
-      </c>
-      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F31" si="3">E4+F3</f>
         <v>0</v>
       </c>
     </row>
@@ -1976,23 +5980,23 @@
       <c r="A5" s="20">
         <v>15</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C5" s="20" t="str">
+      <c r="B5" s="20">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>15-20</v>
-      </c>
-      <c r="D5" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>15&lt;x≦20</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="3"/>
-        <v>17.5</v>
-      </c>
-      <c r="F5" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2000,23 +6004,23 @@
       <c r="A6" s="20">
         <v>20</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C6" s="20" t="str">
+      <c r="B6" s="20">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>20-25</v>
-      </c>
-      <c r="D6" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>20&lt;x≦25</v>
-      </c>
-      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="F6" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2024,23 +6028,23 @@
       <c r="A7" s="20">
         <v>25</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C7" s="20" t="str">
+      <c r="B7" s="20">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>25-30</v>
-      </c>
-      <c r="D7" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>25&lt;x≦30</v>
-      </c>
-      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="3"/>
-        <v>27.5</v>
-      </c>
-      <c r="F7" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2048,23 +6052,23 @@
       <c r="A8" s="20">
         <v>30</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C8" s="20" t="str">
+      <c r="B8" s="20">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>30-35</v>
-      </c>
-      <c r="D8" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>30&lt;x≦35</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="3"/>
-        <v>32.5</v>
-      </c>
-      <c r="F8" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2072,23 +6076,23 @@
       <c r="A9" s="20">
         <v>35</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C9" s="20" t="str">
+      <c r="B9" s="20">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>35-40</v>
-      </c>
-      <c r="D9" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>35&lt;x≦40</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="F9" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2096,537 +6100,571 @@
       <c r="A10" s="20">
         <v>40</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C10" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>40-45</v>
-      </c>
-      <c r="D10" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>40&lt;x≦45</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="B10" s="20">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>C10/$C$32</f>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="3"/>
-        <v>42.5</v>
-      </c>
-      <c r="F10" s="21">
-        <v>1</v>
+        <v>1.0309278350515464E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="20">
         <v>45</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C11" s="20" t="str">
+      <c r="B11" s="20">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>C11+D10</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>45-50</v>
-      </c>
-      <c r="D11" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>45&lt;x≦50</v>
-      </c>
-      <c r="E11" s="20">
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="3"/>
-        <v>47.5</v>
-      </c>
-      <c r="F11" s="21">
-        <v>5</v>
+        <v>6.1855670103092779E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20">
         <v>50</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C12" s="20" t="str">
+      <c r="B12" s="20">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="C12" s="21">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D32" si="4">C12+D11</f>
+        <v>23</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>50-55</v>
-      </c>
-      <c r="D12" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>50&lt;x≦55</v>
-      </c>
-      <c r="E12" s="20">
+        <v>0.17525773195876287</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="3"/>
-        <v>52.5</v>
-      </c>
-      <c r="F12" s="21">
-        <v>17</v>
+        <v>0.23711340206185566</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="20">
         <v>55</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C13" s="20" t="str">
+      <c r="B13" s="20">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="C13" s="21">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>55-60</v>
-      </c>
-      <c r="D13" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>55&lt;x≦60</v>
-      </c>
-      <c r="E13" s="20">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="3"/>
-        <v>57.5</v>
-      </c>
-      <c r="F13" s="21">
-        <v>25</v>
+        <v>0.49484536082474223</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="20">
         <v>60</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C14" s="20" t="str">
+      <c r="B14" s="20">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="C14" s="21">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>60-65</v>
-      </c>
-      <c r="D14" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>60&lt;x≦65</v>
-      </c>
-      <c r="E14" s="20">
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="3"/>
-        <v>62.5</v>
-      </c>
-      <c r="F14" s="21">
-        <v>10</v>
+        <v>0.59793814432989689</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="20">
         <v>65</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C15" s="20" t="str">
+      <c r="B15" s="20">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="C15" s="21">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>65-70</v>
-      </c>
-      <c r="D15" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>65&lt;x≦70</v>
-      </c>
-      <c r="E15" s="20">
+        <v>0.16494845360824742</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="3"/>
-        <v>67.5</v>
-      </c>
-      <c r="F15" s="21">
-        <v>16</v>
+        <v>0.76288659793814428</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="20">
         <v>70</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C16" s="20" t="str">
+      <c r="B16" s="20">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="C16" s="21">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>70-75</v>
-      </c>
-      <c r="D16" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>70&lt;x≦75</v>
-      </c>
-      <c r="E16" s="20">
+        <v>0.12371134020618557</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="F16" s="21">
-        <v>12</v>
+        <v>0.88659793814432986</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="20">
         <v>75</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C17" s="20" t="str">
+      <c r="B17" s="20">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="C17" s="21">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>75-80</v>
-      </c>
-      <c r="D17" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>75&lt;x≦80</v>
-      </c>
-      <c r="E17" s="20">
+        <v>5.1546391752577317E-2</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="3"/>
-        <v>77.5</v>
-      </c>
-      <c r="F17" s="21">
-        <v>5</v>
+        <v>0.93814432989690721</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="20">
         <v>80</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C18" s="20" t="str">
+      <c r="B18" s="20">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="C18" s="21">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>80-85</v>
-      </c>
-      <c r="D18" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>80&lt;x≦85</v>
-      </c>
-      <c r="E18" s="20">
+        <v>3.0927835051546393E-2</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="3"/>
-        <v>82.5</v>
-      </c>
-      <c r="F18" s="21">
-        <v>3</v>
+        <v>0.96907216494845361</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20">
         <v>85</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C19" s="20" t="str">
+      <c r="B19" s="20">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>85-90</v>
-      </c>
-      <c r="D19" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>85&lt;x≦90</v>
-      </c>
-      <c r="E19" s="20">
+        <v>3.0927835051546393E-2</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-      <c r="F19" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="20">
         <v>90</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="C20" s="20" t="str">
+      <c r="B20" s="20">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>90-95</v>
-      </c>
-      <c r="D20" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>90&lt;x≦95</v>
-      </c>
-      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="3"/>
-        <v>92.5</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="20">
         <v>95</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C21" s="20" t="str">
+      <c r="B21" s="20">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>95-100</v>
-      </c>
-      <c r="D21" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>95&lt;x≦100</v>
-      </c>
-      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="3"/>
-        <v>97.5</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="20">
         <v>100</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C22" s="20" t="str">
+      <c r="B22" s="20">
+        <f t="shared" si="0"/>
+        <v>102.5</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>100-105</v>
-      </c>
-      <c r="D22" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>100&lt;x≦105</v>
-      </c>
-      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="3"/>
-        <v>102.5</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="20">
         <v>105</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C23" s="20" t="str">
+      <c r="B23" s="20">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>105-110</v>
-      </c>
-      <c r="D23" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>105&lt;x≦110</v>
-      </c>
-      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="3"/>
-        <v>107.5</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="20">
         <v>110</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="C24" s="20" t="str">
+      <c r="B24" s="20">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>110-115</v>
-      </c>
-      <c r="D24" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>110&lt;x≦115</v>
-      </c>
-      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="3"/>
-        <v>112.5</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="20">
         <v>115</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="C25" s="20" t="str">
+      <c r="B25" s="20">
+        <f t="shared" si="0"/>
+        <v>117.5</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>115-120</v>
-      </c>
-      <c r="D25" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>115&lt;x≦120</v>
-      </c>
-      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="3"/>
-        <v>117.5</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="20">
         <v>120</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="C26" s="20" t="str">
+      <c r="B26" s="20">
+        <f t="shared" si="0"/>
+        <v>122.5</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="1"/>
-        <v>120-125</v>
-      </c>
-      <c r="D26" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>120&lt;x≦125</v>
-      </c>
-      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="3"/>
-        <v>122.5</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20">
         <v>125</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="C27" s="20" t="str">
+      <c r="B27" s="20">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>125-130</v>
-      </c>
-      <c r="D27" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>125&lt;x≦130</v>
-      </c>
-      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="3"/>
-        <v>127.5</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="20">
         <v>130</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="C28" s="20" t="str">
+      <c r="B28" s="20">
+        <f t="shared" si="0"/>
+        <v>132.5</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>130-135</v>
-      </c>
-      <c r="D28" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>130&lt;x≦135</v>
-      </c>
-      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="3"/>
-        <v>132.5</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20">
         <v>135</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="C29" s="20" t="str">
+      <c r="B29" s="20">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>135-140</v>
-      </c>
-      <c r="D29" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>135&lt;x≦140</v>
-      </c>
-      <c r="E29" s="20">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="20">
         <v>140</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="C30" s="20" t="str">
+      <c r="B30" s="20">
+        <f t="shared" si="0"/>
+        <v>142.5</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>140-145</v>
-      </c>
-      <c r="D30" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>140&lt;x≦145</v>
-      </c>
-      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="3"/>
-        <v>142.5</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="20">
         <v>145</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C31" s="20" t="str">
+      <c r="B31" s="20">
+        <f t="shared" si="0"/>
+        <v>147.5</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>145-150</v>
-      </c>
-      <c r="D31" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>145&lt;x≦150</v>
-      </c>
-      <c r="E31" s="20">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="3"/>
-        <v>147.5</v>
-      </c>
-      <c r="F31" s="21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1">
+      <c r="A32" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="22">
+        <f>SUM(C2:C31)</f>
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <f>C32+D31</f>
+        <v>194</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E2:E31)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
